--- a/Exam.xlsx
+++ b/Exam.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Emp_ID</t>
   </si>
@@ -43,24 +43,6 @@
     <t>Gross.</t>
   </si>
   <si>
-    <t>1-500</t>
-  </si>
-  <si>
-    <t>2&gt;=1000</t>
-  </si>
-  <si>
-    <t>Basic…10%</t>
-  </si>
-  <si>
-    <t>Basic&gt;=60000……..40%</t>
-  </si>
-  <si>
-    <t>Basic&gt;=50000……..45%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic&lt;40000……50% </t>
-  </si>
-  <si>
     <t>Jamal</t>
   </si>
   <si>
@@ -107,13 +89,16 @@
   </si>
   <si>
     <t>Emp_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary Sheet of Molla Azad memoriyal Collage </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +106,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,19 +123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -297,9 +277,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,28 +501,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J16" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:J16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J17" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A2:J17"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Emp_ID" dataDxfId="9"/>
     <tableColumn id="2" name="Emp_name" dataDxfId="8"/>
     <tableColumn id="3" name="Basic" dataDxfId="7"/>
     <tableColumn id="4" name="House Rent" dataDxfId="6">
-      <calculatedColumnFormula>IF(C2&gt;=60000,C2*40%,IF(C2&gt;=50000,C2*45%,C2*50%))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(C3&gt;=60000,C3*40%,IF(C3&gt;=50000,C3*45%,C3*50%))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Medical Allw." dataDxfId="5"/>
     <tableColumn id="6" name="No of Children" dataDxfId="4"/>
     <tableColumn id="7" name="Children Allw" dataDxfId="3">
-      <calculatedColumnFormula>IF(F2&gt;=2,1000,IF(F2=1,F2*500,F2*0))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(F3&gt;=2,1000,IF(F3=1,F3*500,F3*0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Total " dataDxfId="2">
-      <calculatedColumnFormula>C2+D2+E2+G2</calculatedColumnFormula>
+      <calculatedColumnFormula>C3+D3+E3+G3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="GPF" dataDxfId="1">
-      <calculatedColumnFormula>C2*10%</calculatedColumnFormula>
+      <calculatedColumnFormula>C3*10%</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Gross." dataDxfId="0">
-      <calculatedColumnFormula>H2-I2</calculatedColumnFormula>
+      <calculatedColumnFormula>H3-I3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -834,148 +814,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="33.75">
+      <c r="A1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1">
-        <v>65000</v>
-      </c>
-      <c r="D2" s="1">
-        <f>IF(C2&gt;=60000,C2*40%,IF(C2&gt;=50000,C2*45%,C2*50%))</f>
-        <v>26000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <f>IF(F2&gt;=2,1000,IF(F2=1,F2*500,F2*0))</f>
-        <v>500</v>
-      </c>
-      <c r="H2" s="1">
-        <f>C2+D2+E2+G2</f>
-        <v>93000</v>
-      </c>
-      <c r="I2" s="1">
-        <f>C2*10%</f>
-        <v>6500</v>
-      </c>
-      <c r="J2" s="2">
-        <f>H2-I2</f>
-        <v>86500</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>40000</v>
+        <v>65000</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D16" si="0">IF(C3&gt;=60000,C3*40%,IF(C3&gt;=50000,C3*45%,C3*50%))</f>
-        <v>20000</v>
+        <f t="shared" ref="D3:D17" si="0">IF(C3&gt;=60000,C3*40%,IF(C3&gt;=50000,C3*45%,C3*50%))</f>
+        <v>26000</v>
       </c>
       <c r="E3" s="1">
         <v>1500</v>
       </c>
       <c r="F3" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G16" si="1">IF(F3&gt;=2,1000,IF(F3=1,F3*500,F3*0))</f>
-        <v>1000</v>
+        <f t="shared" ref="G3:G17" si="1">IF(F3&gt;=2,1000,IF(F3=1,F3*500,F3*0))</f>
+        <v>500</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H16" si="2">C3+D3+E3+G3</f>
-        <v>62500</v>
+        <f t="shared" ref="H3:H17" si="2">C3+D3+E3+G3</f>
+        <v>93000</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I15" si="3">C3*10%</f>
-        <v>4000</v>
+        <f t="shared" ref="I3:I17" si="3">C3*10%</f>
+        <v>6500</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J15" si="4">H3-I3</f>
-        <v>58500</v>
+        <f t="shared" ref="J3:J17" si="4">H3-I3</f>
+        <v>86500</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>55000</v>
+        <v>40000</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>24750</v>
+        <v>20000</v>
       </c>
       <c r="E4" s="1">
         <v>1500</v>
       </c>
       <c r="F4" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
@@ -983,36 +942,36 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>82250</v>
+        <v>62500</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="4"/>
-        <v>76750</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>25000</v>
+        <v>55000</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>12500</v>
+        <v>24750</v>
       </c>
       <c r="E5" s="1">
         <v>1500</v>
       </c>
       <c r="F5" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
@@ -1020,100 +979,100 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>82250</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="4"/>
-        <v>37500</v>
+        <v>76750</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="E6" s="1">
         <v>1500</v>
       </c>
       <c r="F6" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>54500</v>
+        <v>40000</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="3"/>
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="4"/>
-        <v>51000</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>22500</v>
+        <v>17500</v>
       </c>
       <c r="E7" s="1">
         <v>1500</v>
       </c>
       <c r="F7" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>69000</v>
+        <v>54500</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="4"/>
-        <v>64500</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
@@ -1123,44 +1082,44 @@
         <v>1500</v>
       </c>
       <c r="F8" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="2"/>
-        <v>75000</v>
+        <v>69000</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>64500</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>24000</v>
+        <v>22500</v>
       </c>
       <c r="E9" s="1">
         <v>1500</v>
       </c>
       <c r="F9" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
@@ -1168,30 +1127,30 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" si="2"/>
-        <v>86500</v>
+        <v>75000</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="4"/>
-        <v>80500</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="E10" s="1">
         <v>1500</v>
@@ -1205,67 +1164,67 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" si="2"/>
-        <v>47500</v>
+        <v>86500</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="4"/>
-        <v>44500</v>
+        <v>80500</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="E11" s="1">
         <v>1500</v>
       </c>
       <c r="F11" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="2"/>
-        <v>44000</v>
+        <v>47500</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="3"/>
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="4"/>
-        <v>41200</v>
+        <v>44500</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>25200</v>
+        <v>14000</v>
       </c>
       <c r="E12" s="1">
         <v>1500</v>
@@ -1279,195 +1238,208 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" si="2"/>
-        <v>83200</v>
+        <v>44000</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="3"/>
-        <v>5600</v>
+        <v>2800</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="4"/>
-        <v>77600</v>
+        <v>41200</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>25200</v>
       </c>
       <c r="E13" s="1">
         <v>1500</v>
       </c>
       <c r="F13" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="2"/>
-        <v>44500</v>
+        <v>83200</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="3"/>
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="4"/>
-        <v>41700</v>
+        <v>77600</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>22500</v>
+        <v>14000</v>
       </c>
       <c r="E14" s="1">
         <v>1500</v>
       </c>
       <c r="F14" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="2"/>
-        <v>74000</v>
+        <v>44500</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>2800</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="4"/>
-        <v>69000</v>
+        <v>41700</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>24000</v>
+        <v>22500</v>
       </c>
       <c r="E15" s="1">
         <v>1500</v>
       </c>
       <c r="F15" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="2"/>
-        <v>86500</v>
+        <v>74000</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="4"/>
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>60000</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F16" s="11">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>86500</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="4"/>
         <v>80500</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="9">
+    <row r="17" spans="1:10">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="5">
         <v>30000</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="5">
         <v>1500</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F17" s="12">
         <v>3</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G17" s="5">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H17" s="5">
         <f t="shared" si="2"/>
         <v>47500</v>
       </c>
-      <c r="I16" s="5">
-        <f>C16*10%</f>
+      <c r="I17" s="5">
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
-      <c r="J16" s="6">
-        <f>H16-I16</f>
+      <c r="J17" s="6">
+        <f t="shared" si="4"/>
         <v>44500</v>
       </c>
     </row>
-    <row r="20" spans="4:9">
-      <c r="D20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="G20" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9">
-      <c r="D21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="G21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9">
-      <c r="D22" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="13"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Exam.xlsx
+++ b/Exam.xlsx
@@ -13,8 +13,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Emp_ID</t>
   </si>
@@ -92,13 +117,31 @@
   </si>
   <si>
     <t xml:space="preserve">Salary Sheet of Molla Azad memoriyal Collage </t>
+  </si>
+  <si>
+    <t>Basic&gt;=60000……..40%</t>
+  </si>
+  <si>
+    <t>Basic&gt;=50000……..45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic&lt;40000……50% </t>
+  </si>
+  <si>
+    <t>1-500</t>
+  </si>
+  <si>
+    <t>2&gt;=1000</t>
+  </si>
+  <si>
+    <t>Basic…10%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +155,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -814,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1434,14 +1484,41 @@
         <v>44500</v>
       </c>
     </row>
+    <row r="20" spans="1:10">
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>